--- a/graphical-analysis.xlsx
+++ b/graphical-analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PSA-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A18A2-E5BD-4A98-93FD-540D96D0FEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61494DA6-AAF4-4FBB-99EE-960C8004E1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F29BB043-2F67-4F35-A079-BBD8A1438AC7}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
